--- a/planilha_rota_entregas.xlsx
+++ b/planilha_rota_entregas.xlsx
@@ -130,7 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -496,7 +496,7 @@
     <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/planilha_rota_entregas.xlsx
+++ b/planilha_rota_entregas.xlsx
@@ -490,7 +490,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="31.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="25.433571428571426" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="28.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>

--- a/planilha_rota_entregas.xlsx
+++ b/planilha_rota_entregas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>notaFiscal</t>
   </si>
@@ -520,9 +520,7 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>

--- a/planilha_rota_entregas.xlsx
+++ b/planilha_rota_entregas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>notaFiscal</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
   </si>
   <si>
     <t>ENTREGA REALIZADA</t>
@@ -520,197 +523,199 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
